--- a/offsets.xlsx
+++ b/offsets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="13395" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,37 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>alaska</t>
-  </si>
-  <si>
-    <t>nortwest territory</t>
-  </si>
-  <si>
-    <t>alberta</t>
-  </si>
-  <si>
-    <t>ontario</t>
-  </si>
-  <si>
-    <t>western us</t>
-  </si>
-  <si>
-    <t>eastern us</t>
-  </si>
-  <si>
-    <t>central america</t>
-  </si>
-  <si>
-    <t>eastern canada</t>
-  </si>
-  <si>
-    <t>greenland</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+  <si>
+    <t>1_Alaska</t>
   </si>
   <si>
     <t>x</t>
@@ -51,10 +28,133 @@
     <t>y</t>
   </si>
   <si>
-    <t>newy</t>
-  </si>
-  <si>
-    <t>newx</t>
+    <t>2_NorthWestTerritory</t>
+  </si>
+  <si>
+    <t>3_Alberta</t>
+  </si>
+  <si>
+    <t>4_Ontario</t>
+  </si>
+  <si>
+    <t>5_WesternUs</t>
+  </si>
+  <si>
+    <t>7_EasternUS</t>
+  </si>
+  <si>
+    <t>8_CentralAmerica</t>
+  </si>
+  <si>
+    <t>9_EasternCanada</t>
+  </si>
+  <si>
+    <t>10_Greenland</t>
+  </si>
+  <si>
+    <t>11_Venezueula</t>
+  </si>
+  <si>
+    <t>12_Brazil</t>
+  </si>
+  <si>
+    <t>13_Peru</t>
+  </si>
+  <si>
+    <t>14_Argentina</t>
+  </si>
+  <si>
+    <t>15_Iceland</t>
+  </si>
+  <si>
+    <t>16_UK</t>
+  </si>
+  <si>
+    <t>17_WesternEurope</t>
+  </si>
+  <si>
+    <t>18_SouthernEurope</t>
+  </si>
+  <si>
+    <t>19_NorthernEurope</t>
+  </si>
+  <si>
+    <t>20_Scandinavia</t>
+  </si>
+  <si>
+    <t>21_Russia</t>
+  </si>
+  <si>
+    <t>23_CentralAfrica</t>
+  </si>
+  <si>
+    <t>24_SouthAfrica</t>
+  </si>
+  <si>
+    <t>25_Madacasgar</t>
+  </si>
+  <si>
+    <t>26_Egypt</t>
+  </si>
+  <si>
+    <t>27_EastAfrica</t>
+  </si>
+  <si>
+    <t>28_MiddleEast</t>
+  </si>
+  <si>
+    <t>29_India</t>
+  </si>
+  <si>
+    <t>30_SouthEastAsia</t>
+  </si>
+  <si>
+    <t>31_China</t>
+  </si>
+  <si>
+    <t>32_Mongolia</t>
+  </si>
+  <si>
+    <t>33_Japan</t>
+  </si>
+  <si>
+    <t>34_Kamchatka</t>
+  </si>
+  <si>
+    <t>35_Irkutusk</t>
+  </si>
+  <si>
+    <t>36_Yakutusk</t>
+  </si>
+  <si>
+    <t>37_Siberia</t>
+  </si>
+  <si>
+    <t>38_Ural</t>
+  </si>
+  <si>
+    <t>39_Afganistan</t>
+  </si>
+  <si>
+    <t>40_Indonesia</t>
+  </si>
+  <si>
+    <t>41_NewGuniea</t>
+  </si>
+  <si>
+    <t>42_WesternAus</t>
+  </si>
+  <si>
+    <t>43_EasternAus</t>
+  </si>
+  <si>
+    <t>22_NorthAfrica</t>
+  </si>
+  <si>
+    <t>topleftx</t>
+  </si>
+  <si>
+    <t>toplefty</t>
   </si>
 </sst>
 </file>
@@ -393,192 +493,530 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="C2">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="C3">
-        <v>336</v>
+        <v>98.5</v>
       </c>
       <c r="D3">
-        <f>SUM(B3,-B2)</f>
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="E3">
-        <f>SUM(C3,-C2)</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
+        <v>118.5</v>
+      </c>
+      <c r="C4">
+        <v>150.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>178</v>
+      </c>
+      <c r="C5">
+        <v>164.5</v>
+      </c>
+      <c r="I5">
+        <f>SUM(B2 - B2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>127</v>
+      </c>
+      <c r="C6">
         <v>212</v>
       </c>
-      <c r="C4">
-        <v>393</v>
-      </c>
-      <c r="D4">
-        <f>SUM(B4, -B2)</f>
-        <v>65</v>
-      </c>
-      <c r="E4">
-        <f>SUM(C4, -C2)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>276</v>
-      </c>
-      <c r="C5">
-        <v>393</v>
-      </c>
-      <c r="D5">
-        <f>SUM(B5, -B2)</f>
-        <v>129</v>
-      </c>
-      <c r="E5">
-        <f>SUM(C5, -C2)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>220</v>
-      </c>
-      <c r="C6">
-        <v>444</v>
-      </c>
-      <c r="D6">
-        <f>SUM(B6, -B2)</f>
-        <v>73</v>
-      </c>
-      <c r="E6">
-        <f>SUM(C6, -C2)</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f>SUM(B3 - B2)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
+        <v>182.5</v>
+      </c>
+      <c r="C7">
+        <v>221.5</v>
+      </c>
+      <c r="I7">
+        <f>SUM(B4, - B2)</f>
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>133</v>
+      </c>
+      <c r="C8">
+        <v>276.5</v>
+      </c>
+      <c r="I8">
+        <f>SUM(B5,-B2)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>226</v>
+      </c>
+      <c r="C9">
+        <v>162.5</v>
+      </c>
+      <c r="I9">
+        <f>SUM(B6,-B2)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
         <v>263</v>
       </c>
-      <c r="C7">
-        <v>446</v>
-      </c>
-      <c r="D7">
-        <f>SUM(B7, -B2)</f>
-        <v>116</v>
-      </c>
-      <c r="E7">
-        <f>SUM(C7, -C2)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>230</v>
-      </c>
-      <c r="C8">
-        <v>504</v>
-      </c>
-      <c r="D8">
-        <f>SUM(B8, -B2)</f>
-        <v>83</v>
-      </c>
-      <c r="E8">
-        <f>SUM(C8, -C2)</f>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
+      <c r="C10">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>202.5</v>
+      </c>
+      <c r="C11">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>232.5</v>
+      </c>
+      <c r="C12">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>196</v>
+      </c>
+      <c r="C13">
+        <v>373.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>215</v>
+      </c>
+      <c r="C14">
+        <v>452.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>330.5</v>
+      </c>
+      <c r="C15">
+        <v>133.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>315</v>
+      </c>
+      <c r="C16">
+        <v>188.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>333</v>
+      </c>
+      <c r="C17">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>389</v>
+      </c>
+      <c r="C18">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>385</v>
+      </c>
+      <c r="C19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>392</v>
+      </c>
+      <c r="C20">
+        <v>133</v>
+      </c>
+      <c r="D20">
+        <v>358</v>
+      </c>
+      <c r="E20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>457.5</v>
+      </c>
+      <c r="C21">
+        <v>174.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>365.5</v>
+      </c>
+      <c r="C22">
+        <v>342.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>411</v>
+      </c>
+      <c r="C23">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>424</v>
+      </c>
+      <c r="C24">
+        <v>467.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>483</v>
+      </c>
+      <c r="C25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>416.5</v>
+      </c>
+      <c r="C26">
+        <v>321.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>452.5</v>
+      </c>
+      <c r="C27">
+        <v>395.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>466</v>
+      </c>
+      <c r="C28">
+        <v>307.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>555.5</v>
+      </c>
+      <c r="C29">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>613.5</v>
+      </c>
+      <c r="C30">
         <v>323</v>
       </c>
-      <c r="C9">
-        <v>390</v>
-      </c>
-      <c r="D9">
-        <f>SUM(B9, -B2)</f>
-        <v>176</v>
-      </c>
-      <c r="E9">
-        <f>SUM(C9, -C2)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>372</v>
-      </c>
-      <c r="C10">
-        <v>303</v>
-      </c>
-      <c r="D10">
-        <f>SUM(B10, -B2)</f>
-        <v>225</v>
-      </c>
-      <c r="E10">
-        <f>SUM(C10, -C2)</f>
-        <v>-43</v>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>600.5</v>
+      </c>
+      <c r="C31">
+        <v>248.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>628</v>
+      </c>
+      <c r="C32">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>693.5</v>
+      </c>
+      <c r="C33">
+        <v>205.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>684.5</v>
+      </c>
+      <c r="C34">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>619</v>
+      </c>
+      <c r="C35">
+        <v>151.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>630</v>
+      </c>
+      <c r="C36">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>567</v>
+      </c>
+      <c r="C37">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>534.5</v>
+      </c>
+      <c r="C38">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>513.5</v>
+      </c>
+      <c r="C39">
+        <v>220.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>619</v>
+      </c>
+      <c r="C40">
+        <v>398.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>686.5</v>
+      </c>
+      <c r="C41">
+        <v>378.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>660</v>
+      </c>
+      <c r="C42">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>703</v>
+      </c>
+      <c r="C43">
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/offsets.xlsx
+++ b/offsets.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -496,7 +495,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
